--- a/meta/program/BlancoRestGeneratorTelegramField.xlsx
+++ b/meta/program/BlancoRestGeneratorTelegramField.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0E5011D5-5A18-B044-ADE7-C97AF3EB9BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E767785B-5351-DC41-8180-FA663E21EAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -772,6 +772,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -779,15 +788,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1181,7 +1181,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1225,7 +1225,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1246,14 +1246,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1429,20 +1429,20 @@
       <c r="A19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="47"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1485,13 +1485,13 @@
       <c r="B25" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="53" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
@@ -1499,9 +1499,9 @@
     <row r="26" spans="1:6">
       <c r="A26" s="47"/>
       <c r="B26" s="47"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1566,10 +1566,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="34"/>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:6" ht="29" customHeight="1">
       <c r="A31" s="32">
@@ -1583,15 +1583,15 @@
         <v>32</v>
       </c>
       <c r="D31" s="34"/>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:6" ht="15">
       <c r="A32" s="32">
-        <f>A30+1</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>50</v>
@@ -1608,7 +1608,7 @@
     <row r="33" spans="1:6">
       <c r="A33" s="32">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>48</v>
@@ -1623,7 +1623,7 @@
     <row r="34" spans="1:6" ht="15">
       <c r="A34" s="32">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>36</v>
@@ -1640,7 +1640,7 @@
     <row r="35" spans="1:6" ht="15">
       <c r="A35" s="32">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>37</v>
@@ -1657,7 +1657,7 @@
     <row r="36" spans="1:6" ht="15">
       <c r="A36" s="32">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>38</v>
@@ -1674,7 +1674,7 @@
     <row r="37" spans="1:6" ht="15">
       <c r="A37" s="32">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>39</v>
@@ -1691,7 +1691,7 @@
     <row r="38" spans="1:6" ht="15">
       <c r="A38" s="32">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>40</v>
@@ -1708,7 +1708,7 @@
     <row r="39" spans="1:6">
       <c r="A39" s="32">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>41</v>
@@ -1732,11 +1732,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B25:B26"/>
@@ -1744,30 +1739,35 @@
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D56">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>adjustDefaultValue</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>adjustFiledName</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>createToString</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>accessScope2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>isAbstract</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1781,7 +1781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/meta/program/BlancoRestGeneratorTelegramField.xlsx
+++ b/meta/program/BlancoRestGeneratorTelegramField.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E767785B-5351-DC41-8180-FA663E21EAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098967E-CB1F-CF49-AA45-7FBC0061C216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -314,6 +314,54 @@
   </si>
   <si>
     <t>BlancoRestGeneratorのなかで利用されるValueObjectです。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>java.util.List&lt;java.lang.String&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;java.lang.String&gt;()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アノテーション文字列です</t>
+    <rPh sb="7" eb="10">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>fieldAnnotationList</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>descriptionList</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フィールドの補助説明です。文字参照エンコード済みの値を格納してください。</t>
+    <rPh sb="6" eb="8">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクノウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -321,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -353,6 +401,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -374,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -643,11 +697,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -772,6 +902,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,14 +920,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,7 +1330,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1225,7 +1374,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1250,10 +1399,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1408,14 +1557,14 @@
       <c r="D16" s="15"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1425,27 +1574,27 @@
       <c r="E18" s="8"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -1453,7 +1602,7 @@
       <c r="E21" s="23"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="24"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
@@ -1461,14 +1610,14 @@
       <c r="E22" s="27"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1478,33 +1627,33 @@
       <c r="E24" s="16"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:7" ht="13.5" customHeight="1">
       <c r="A25" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="50" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="47"/>
       <c r="B26" s="47"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="20">
         <v>1</v>
       </c>
@@ -1520,7 +1669,7 @@
       </c>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="32">
         <f>A27+1</f>
         <v>2</v>
@@ -1537,9 +1686,9 @@
       </c>
       <c r="F28" s="36"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="32">
-        <f t="shared" ref="A29:A39" si="0">A28+1</f>
+        <f t="shared" ref="A29:A41" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="33" t="s">
@@ -1554,200 +1703,242 @@
       </c>
       <c r="F29" s="36"/>
     </row>
-    <row r="30" spans="1:6" ht="29" customHeight="1">
+    <row r="30" spans="1:7" s="58" customFormat="1" ht="45">
       <c r="A30" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="52"/>
-    </row>
-    <row r="31" spans="1:6" ht="29" customHeight="1">
+      <c r="B30" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" ht="29" customHeight="1">
       <c r="A31" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D31" s="34"/>
-      <c r="E31" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="1:6" ht="15">
+      <c r="E31" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" spans="1:7" ht="29" customHeight="1">
       <c r="A32" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D32" s="34"/>
-      <c r="E32" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="46"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="E32" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="49"/>
+    </row>
+    <row r="33" spans="1:7" s="58" customFormat="1" ht="45">
       <c r="A33" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="46"/>
-    </row>
-    <row r="34" spans="1:6" ht="15">
+      <c r="B33" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="34"/>
       <c r="E34" s="37" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F34" s="46"/>
     </row>
-    <row r="35" spans="1:6" ht="15">
+    <row r="35" spans="1:7">
       <c r="A35" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="37" t="s">
-        <v>44</v>
-      </c>
+      <c r="E35" s="37"/>
       <c r="F35" s="46"/>
     </row>
-    <row r="36" spans="1:6" ht="15">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F36" s="46"/>
     </row>
-    <row r="37" spans="1:6" ht="15">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37" s="46"/>
     </row>
-    <row r="38" spans="1:6" ht="15">
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F38" s="46"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B39" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="46"/>
+    </row>
+    <row r="40" spans="1:7" ht="15">
+      <c r="A40" s="32">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="46"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="32">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C41" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34" t="s">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="36"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="24"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="39"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="24"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
+  <mergeCells count="14">
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D56" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D58" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
